--- a/Sounds/Sound_Duration_To_Robux_Cost_List.xlsx
+++ b/Sounds/Sound_Duration_To_Robux_Cost_List.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/eigengrau_23/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9223332-42D3-7545-A3F3-43941F06970C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8EF248B2-1A04-6841-8FAE-FC498AF246DA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="35220" yWindow="460" windowWidth="33600" windowHeight="19480" xr2:uid="{3B55B23C-837B-0946-9A89-BAD6EBD6E49C}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="19480" xr2:uid="{3B55B23C-837B-0946-9A89-BAD6EBD6E49C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="29">
   <si>
     <t>Class</t>
   </si>
@@ -105,6 +105,21 @@
   </si>
   <si>
     <t>Sword_Hit_06_Critical_Hit</t>
+  </si>
+  <si>
+    <t>Sword_Draw_01</t>
+  </si>
+  <si>
+    <t>Sword_Draw_02</t>
+  </si>
+  <si>
+    <t>Sword_Draw_03</t>
+  </si>
+  <si>
+    <t>Sword_Draw_04</t>
+  </si>
+  <si>
+    <t>Sword_Draw_05</t>
   </si>
 </sst>
 </file>
@@ -574,8 +589,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FC504840-0225-534A-B0F7-0901C7A6A8C7}">
   <dimension ref="A1:F31"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+    <sheetView tabSelected="1" topLeftCell="A8" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -813,41 +828,71 @@
       <c r="A16" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B16" s="12"/>
-      <c r="C16" s="4"/>
-      <c r="D16" s="10"/>
+      <c r="B16" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="C16" s="4">
+        <v>1.39</v>
+      </c>
+      <c r="D16" s="10">
+        <v>20</v>
+      </c>
     </row>
     <row r="17" spans="1:4" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B17" s="4"/>
-      <c r="C17" s="4"/>
-      <c r="D17" s="10"/>
+      <c r="B17" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C17" s="4">
+        <v>1.34</v>
+      </c>
+      <c r="D17" s="10">
+        <v>20</v>
+      </c>
     </row>
     <row r="18" spans="1:4" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B18" s="4"/>
-      <c r="C18" s="4"/>
-      <c r="D18" s="10"/>
+      <c r="B18" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C18" s="4">
+        <v>1.25</v>
+      </c>
+      <c r="D18" s="10">
+        <v>20</v>
+      </c>
     </row>
     <row r="19" spans="1:4" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B19" s="4"/>
-      <c r="C19" s="4"/>
-      <c r="D19" s="10"/>
+      <c r="B19" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="C19" s="4">
+        <v>1.2</v>
+      </c>
+      <c r="D19" s="10">
+        <v>20</v>
+      </c>
     </row>
     <row r="20" spans="1:4" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B20" s="4"/>
-      <c r="C20" s="4"/>
-      <c r="D20" s="10"/>
+      <c r="B20" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="C20" s="4">
+        <v>1.22</v>
+      </c>
+      <c r="D20" s="10">
+        <v>20</v>
+      </c>
     </row>
     <row r="21" spans="1:4" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
@@ -916,17 +961,17 @@
       <c r="B30" s="7"/>
       <c r="C30" s="8">
         <f>C2+C3+C4+C5+C6+C7+C8+C9+C10+C11+C12+C13+C14+C15+C16+C17+C18+C19+C20+C21+C22+C23+C24+C25+C26+C27+C28+C29</f>
-        <v>5.7969999999999997</v>
+        <v>12.196999999999999</v>
       </c>
       <c r="D30" s="11">
         <f>SUM(D2:D29)</f>
-        <v>280</v>
+        <v>380</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.2">
       <c r="C31" s="9">
         <f>SUM(C2:C30)</f>
-        <v>11.593999999999999</v>
+        <v>24.393999999999998</v>
       </c>
     </row>
   </sheetData>

--- a/Sounds/Sound_Duration_To_Robux_Cost_List.xlsx
+++ b/Sounds/Sound_Duration_To_Robux_Cost_List.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/eigengrau_23/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/Active_Projects/Sound Library/Group_Project_Roblox/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8EF248B2-1A04-6841-8FAE-FC498AF246DA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E8EBC9C-70B0-EC45-82DC-C3528E958418}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="19480" xr2:uid="{3B55B23C-837B-0946-9A89-BAD6EBD6E49C}"/>
+    <workbookView xWindow="40400" yWindow="460" windowWidth="26140" windowHeight="21140" xr2:uid="{3B55B23C-837B-0946-9A89-BAD6EBD6E49C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="64">
   <si>
     <t>Class</t>
   </si>
@@ -120,6 +120,111 @@
   </si>
   <si>
     <t>Sword_Draw_05</t>
+  </si>
+  <si>
+    <t>Shield_Block_1</t>
+  </si>
+  <si>
+    <t>Shield_Block_2</t>
+  </si>
+  <si>
+    <t>Shield_Block_3</t>
+  </si>
+  <si>
+    <t>Inspire</t>
+  </si>
+  <si>
+    <t>Sheld_Bash</t>
+  </si>
+  <si>
+    <t>Spin_To_Win</t>
+  </si>
+  <si>
+    <t>Alchemist</t>
+  </si>
+  <si>
+    <t>Dagger_Stab_1</t>
+  </si>
+  <si>
+    <t>Dagger_Stab_2</t>
+  </si>
+  <si>
+    <t>Dagger_Stab_3</t>
+  </si>
+  <si>
+    <t>Dagger_Stab_4</t>
+  </si>
+  <si>
+    <t>Dagger_Stab_5</t>
+  </si>
+  <si>
+    <t>Item_Throw_1</t>
+  </si>
+  <si>
+    <t>Item_Throw_2</t>
+  </si>
+  <si>
+    <t>Item_Throw_3</t>
+  </si>
+  <si>
+    <t>Item_Throw_4</t>
+  </si>
+  <si>
+    <t>Item_Throw_5</t>
+  </si>
+  <si>
+    <t>Potion_Brew_1</t>
+  </si>
+  <si>
+    <t>Potion_Brew_3</t>
+  </si>
+  <si>
+    <t>Potion_Brew_2</t>
+  </si>
+  <si>
+    <t>Healing_Potion</t>
+  </si>
+  <si>
+    <t>Poison_Potion</t>
+  </si>
+  <si>
+    <t>Mana_Potion</t>
+  </si>
+  <si>
+    <t>Antidote_Potion</t>
+  </si>
+  <si>
+    <t>Mage</t>
+  </si>
+  <si>
+    <t>Orb_Attack_1</t>
+  </si>
+  <si>
+    <t>Orb_Attack_2</t>
+  </si>
+  <si>
+    <t>Orb_Attack_3</t>
+  </si>
+  <si>
+    <t>Orb_Attack_4</t>
+  </si>
+  <si>
+    <t>Orb_Attack_5</t>
+  </si>
+  <si>
+    <t>Fireball</t>
+  </si>
+  <si>
+    <t>Force_Push</t>
+  </si>
+  <si>
+    <t>Arcane_Blast</t>
+  </si>
+  <si>
+    <t>Blizzard</t>
+  </si>
+  <si>
+    <t>?</t>
   </si>
 </sst>
 </file>
@@ -155,18 +260,12 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -188,8 +287,32 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF70AD47"/>
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="-0.499984740745262"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
         <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -239,38 +362,40 @@
   </cellStyleXfs>
   <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="2" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="0" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="1" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="0" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="0" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="3" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="0" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -587,10 +712,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FC504840-0225-534A-B0F7-0901C7A6A8C7}">
-  <dimension ref="A1:F31"/>
+  <dimension ref="A1:F69"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="D69" sqref="D69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -603,375 +728,885 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="9" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B2" s="4" t="s">
+      <c r="A2" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="4">
+      <c r="C2" s="7">
         <v>0.23699999999999999</v>
       </c>
-      <c r="D2" s="10">
+      <c r="D2" s="5">
         <v>20</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" s="4" t="s">
+      <c r="A3" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="4">
+      <c r="C3" s="7">
         <v>0.22</v>
       </c>
-      <c r="D3" s="10">
+      <c r="D3" s="5">
         <v>20</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4" s="4" t="s">
+      <c r="A4" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="4">
+      <c r="C4" s="7">
         <v>0.28000000000000003</v>
       </c>
-      <c r="D4" s="10">
+      <c r="D4" s="5">
         <v>20</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B5" s="4" t="s">
+      <c r="A5" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="C5" s="4">
+      <c r="C5" s="7">
         <v>0.2</v>
       </c>
-      <c r="D5" s="10">
+      <c r="D5" s="5">
         <v>20</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B6" s="4" t="s">
+      <c r="A6" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="C6" s="4">
+      <c r="C6" s="7">
         <v>0.2</v>
       </c>
-      <c r="D6" s="10">
+      <c r="D6" s="5">
         <v>20</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B7" s="4" t="s">
+      <c r="A7" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="B7" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="C7" s="4">
+      <c r="C7" s="7">
         <v>0.17</v>
       </c>
-      <c r="D7" s="10">
+      <c r="D7" s="5">
         <v>20</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B8" s="4" t="s">
+      <c r="A8" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="B8" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="C8" s="4">
+      <c r="C8" s="7">
         <v>0.21</v>
       </c>
-      <c r="D8" s="10">
-        <v>20</v>
-      </c>
-      <c r="F8" s="5" t="s">
+      <c r="D8" s="5">
+        <v>20</v>
+      </c>
+      <c r="F8" s="1" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B9" s="4" t="s">
+      <c r="A9" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="B9" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="C9" s="4">
+      <c r="C9" s="7">
         <v>0.2</v>
       </c>
-      <c r="D9" s="10">
-        <v>20</v>
-      </c>
-      <c r="F9" s="5" t="s">
+      <c r="D9" s="5">
+        <v>20</v>
+      </c>
+      <c r="F9" s="1" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B10" s="4" t="s">
+      <c r="A10" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="B10" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="C10" s="4">
+      <c r="C10" s="7">
         <v>0.63</v>
       </c>
-      <c r="D10" s="10">
-        <v>20</v>
-      </c>
-      <c r="F10" s="5" t="s">
+      <c r="D10" s="5">
+        <v>20</v>
+      </c>
+      <c r="F10" s="1" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="23" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B11" s="4" t="s">
+      <c r="A11" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="B11" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="C11" s="4">
+      <c r="C11" s="7">
         <v>0.71</v>
       </c>
-      <c r="D11" s="10">
-        <v>20</v>
-      </c>
-      <c r="F11" s="5" t="s">
+      <c r="D11" s="5">
+        <v>20</v>
+      </c>
+      <c r="F11" s="1" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B12" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="C12" s="4">
+      <c r="A12" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="B12" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="C12" s="7">
         <v>0.69</v>
       </c>
-      <c r="D12" s="10">
+      <c r="D12" s="5">
         <v>20</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B13" s="4" t="s">
+      <c r="A13" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="B13" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="C13" s="4">
+      <c r="C13" s="7">
         <v>0.66</v>
       </c>
-      <c r="D13" s="10">
+      <c r="D13" s="5">
         <v>20</v>
       </c>
     </row>
     <row r="14" spans="1:6" ht="19" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B14" s="4" t="s">
+      <c r="A14" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="B14" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="C14" s="4">
+      <c r="C14" s="7">
         <v>0.68</v>
       </c>
-      <c r="D14" s="10">
+      <c r="D14" s="5">
         <v>20</v>
       </c>
     </row>
     <row r="15" spans="1:6" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B15" s="12" t="s">
+      <c r="A15" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="B15" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="C15" s="4">
+      <c r="C15" s="7">
         <v>0.71</v>
       </c>
-      <c r="D15" s="10">
+      <c r="D15" s="5">
         <v>20</v>
       </c>
     </row>
     <row r="16" spans="1:6" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B16" s="12" t="s">
+      <c r="A16" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="B16" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="C16" s="4">
+      <c r="C16" s="7">
         <v>1.39</v>
       </c>
-      <c r="D16" s="10">
+      <c r="D16" s="5">
         <v>20</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B17" s="4" t="s">
+      <c r="A17" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="B17" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="C17" s="4">
+      <c r="C17" s="7">
         <v>1.34</v>
       </c>
-      <c r="D17" s="10">
+      <c r="D17" s="5">
         <v>20</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B18" s="4" t="s">
+      <c r="A18" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="B18" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="C18" s="4">
+      <c r="C18" s="7">
         <v>1.25</v>
       </c>
-      <c r="D18" s="10">
+      <c r="D18" s="5">
         <v>20</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B19" s="4" t="s">
+      <c r="A19" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="B19" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="C19" s="4">
+      <c r="C19" s="7">
         <v>1.2</v>
       </c>
-      <c r="D19" s="10">
+      <c r="D19" s="5">
         <v>20</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B20" s="4" t="s">
+      <c r="A20" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="B20" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="C20" s="4">
+      <c r="C20" s="7">
         <v>1.22</v>
       </c>
-      <c r="D20" s="10">
+      <c r="D20" s="5">
         <v>20</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B21" s="4"/>
-      <c r="C21" s="4"/>
-      <c r="D21" s="10"/>
+      <c r="A21" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="B21" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="C21" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="D21" s="5">
+        <v>20</v>
+      </c>
     </row>
     <row r="22" spans="1:4" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B22" s="4"/>
-      <c r="C22" s="4"/>
-      <c r="D22" s="10"/>
+      <c r="A22" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="B22" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="C22" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="D22" s="5">
+        <v>20</v>
+      </c>
     </row>
     <row r="23" spans="1:4" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B23" s="4"/>
-      <c r="C23" s="4"/>
-      <c r="D23" s="10"/>
+      <c r="A23" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="B23" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="C23" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="D23" s="5">
+        <v>20</v>
+      </c>
     </row>
     <row r="24" spans="1:4" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="1"/>
-      <c r="B24" s="4"/>
-      <c r="C24" s="4"/>
-      <c r="D24" s="10"/>
+      <c r="A24" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="B24" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="C24" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="D24" s="5">
+        <v>20</v>
+      </c>
     </row>
     <row r="25" spans="1:4" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="1"/>
-      <c r="B25" s="4"/>
-      <c r="C25" s="4"/>
-      <c r="D25" s="10"/>
+      <c r="A25" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="B25" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="C25" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="D25" s="5">
+        <v>20</v>
+      </c>
     </row>
     <row r="26" spans="1:4" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="1"/>
-      <c r="B26" s="4"/>
-      <c r="C26" s="4"/>
-      <c r="D26" s="10"/>
+      <c r="A26" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="B26" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="C26" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="D26" s="5">
+        <v>20</v>
+      </c>
     </row>
     <row r="27" spans="1:4" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="1"/>
-      <c r="B27" s="4"/>
-      <c r="C27" s="4"/>
-      <c r="D27" s="10"/>
+      <c r="A27" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="B27" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="C27" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="D27" s="5">
+        <v>20</v>
+      </c>
     </row>
     <row r="28" spans="1:4" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="1"/>
-      <c r="B28" s="4"/>
-      <c r="C28" s="4"/>
-      <c r="D28" s="10"/>
+      <c r="A28" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="B28" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="C28" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="D28" s="5">
+        <v>20</v>
+      </c>
     </row>
     <row r="29" spans="1:4" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="1"/>
-      <c r="B29" s="4"/>
-      <c r="C29" s="4"/>
-      <c r="D29" s="10"/>
+      <c r="A29" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="B29" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="C29" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="D29" s="5">
+        <v>20</v>
+      </c>
     </row>
     <row r="30" spans="1:4" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="6" t="s">
+      <c r="A30" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="B30" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="C30" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="D30" s="5">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="B31" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="C31" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="D31" s="5">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="B32" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="C32" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="D32" s="5">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="B33" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="C33" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="D33" s="5">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="B34" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="C34" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="D34" s="5">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="B35" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="C35" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="D35" s="5">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="B36" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="C36" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="D36" s="5">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="B37" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="C37" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="D37" s="5">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="B38" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="C38" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="D38" s="5">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="B39" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="C39" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="D39" s="5">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="B40" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="C40" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="D40" s="5">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="B41" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="C41" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="D41" s="5">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="B42" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="C42" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="D42" s="5">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="B43" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="C43" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="D43" s="5">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="B44" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="C44" s="12" t="s">
+        <v>63</v>
+      </c>
+      <c r="D44" s="5">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="B45" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="C45" s="12" t="s">
+        <v>63</v>
+      </c>
+      <c r="D45" s="5">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="B46" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="C46" s="12" t="s">
+        <v>63</v>
+      </c>
+      <c r="D46" s="5">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="B47" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="C47" s="12" t="s">
+        <v>63</v>
+      </c>
+      <c r="D47" s="5">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="B48" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="C48" s="12" t="s">
+        <v>63</v>
+      </c>
+      <c r="D48" s="5">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A49" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="B49" s="12" t="s">
+        <v>59</v>
+      </c>
+      <c r="C49" s="12" t="s">
+        <v>63</v>
+      </c>
+      <c r="D49" s="5">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A50" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="B50" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="C50" s="12" t="s">
+        <v>63</v>
+      </c>
+      <c r="D50" s="5">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A51" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="B51" s="12" t="s">
+        <v>61</v>
+      </c>
+      <c r="C51" s="12" t="s">
+        <v>63</v>
+      </c>
+      <c r="D51" s="5">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A52" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="B52" s="12" t="s">
+        <v>62</v>
+      </c>
+      <c r="C52" s="12" t="s">
+        <v>63</v>
+      </c>
+      <c r="D52" s="5">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A53" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="B53" s="12"/>
+      <c r="C53" s="12"/>
+      <c r="D53" s="5"/>
+    </row>
+    <row r="54" spans="1:4" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A54" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="B54" s="12"/>
+      <c r="C54" s="12"/>
+      <c r="D54" s="5"/>
+    </row>
+    <row r="55" spans="1:4" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A55" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="B55" s="12"/>
+      <c r="C55" s="12"/>
+      <c r="D55" s="5"/>
+    </row>
+    <row r="56" spans="1:4" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A56" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="B56" s="12"/>
+      <c r="C56" s="12"/>
+      <c r="D56" s="5"/>
+    </row>
+    <row r="57" spans="1:4" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A57" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="B57" s="12"/>
+      <c r="C57" s="12"/>
+      <c r="D57" s="5"/>
+    </row>
+    <row r="58" spans="1:4" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A58" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="B58" s="12"/>
+      <c r="C58" s="12"/>
+      <c r="D58" s="5"/>
+    </row>
+    <row r="59" spans="1:4" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A59" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="B59" s="12"/>
+      <c r="C59" s="12"/>
+      <c r="D59" s="5"/>
+    </row>
+    <row r="60" spans="1:4" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A60" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="B60" s="12"/>
+      <c r="C60" s="12"/>
+      <c r="D60" s="5"/>
+    </row>
+    <row r="61" spans="1:4" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A61" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="B61" s="12"/>
+      <c r="C61" s="12"/>
+      <c r="D61" s="5"/>
+    </row>
+    <row r="62" spans="1:4" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A62" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="B62" s="12"/>
+      <c r="C62" s="12"/>
+      <c r="D62" s="5"/>
+    </row>
+    <row r="63" spans="1:4" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A63" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="B63" s="12"/>
+      <c r="C63" s="12"/>
+      <c r="D63" s="5"/>
+    </row>
+    <row r="64" spans="1:4" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A64" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="B64" s="12"/>
+      <c r="C64" s="12"/>
+      <c r="D64" s="5"/>
+    </row>
+    <row r="65" spans="1:4" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A65" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="B65" s="12"/>
+      <c r="C65" s="12"/>
+      <c r="D65" s="5"/>
+    </row>
+    <row r="66" spans="1:4" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A66" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="B66" s="12"/>
+      <c r="C66" s="12"/>
+      <c r="D66" s="5"/>
+    </row>
+    <row r="67" spans="1:4" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A67" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="B67" s="12"/>
+      <c r="C67" s="12"/>
+      <c r="D67" s="5"/>
+    </row>
+    <row r="68" spans="1:4" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A68" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="B68" s="12"/>
+      <c r="C68" s="12"/>
+      <c r="D68" s="5"/>
+    </row>
+    <row r="69" spans="1:4" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A69" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="B30" s="7"/>
-      <c r="C30" s="8">
-        <f>C2+C3+C4+C5+C6+C7+C8+C9+C10+C11+C12+C13+C14+C15+C16+C17+C18+C19+C20+C21+C22+C23+C24+C25+C26+C27+C28+C29</f>
+      <c r="B69" s="3"/>
+      <c r="C69" s="4">
+        <f>SUM(C2:C68)</f>
         <v>12.196999999999999</v>
       </c>
-      <c r="D30" s="11">
-        <f>SUM(D2:D29)</f>
-        <v>380</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="C31" s="9">
-        <f>SUM(C2:C30)</f>
-        <v>24.393999999999998</v>
+      <c r="D69" s="6">
+        <f>SUM(D2:D68)</f>
+        <v>1020</v>
       </c>
     </row>
   </sheetData>

--- a/Sounds/Sound_Duration_To_Robux_Cost_List.xlsx
+++ b/Sounds/Sound_Duration_To_Robux_Cost_List.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10113"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10209"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/Active_Projects/Sound Library/Group_Project_Roblox/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/eigengrau_23/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E8EBC9C-70B0-EC45-82DC-C3528E958418}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{844CF6BB-0A40-5548-92EB-11080115FB79}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="40400" yWindow="460" windowWidth="26140" windowHeight="21140" xr2:uid="{3B55B23C-837B-0946-9A89-BAD6EBD6E49C}"/>
+    <workbookView xWindow="40800" yWindow="480" windowWidth="26140" windowHeight="19480" xr2:uid="{3B55B23C-837B-0946-9A89-BAD6EBD6E49C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="67">
   <si>
     <t>Class</t>
   </si>
@@ -173,15 +173,6 @@
     <t>Item_Throw_5</t>
   </si>
   <si>
-    <t>Potion_Brew_1</t>
-  </si>
-  <si>
-    <t>Potion_Brew_3</t>
-  </si>
-  <si>
-    <t>Potion_Brew_2</t>
-  </si>
-  <si>
     <t>Healing_Potion</t>
   </si>
   <si>
@@ -225,6 +216,24 @@
   </si>
   <si>
     <t>?</t>
+  </si>
+  <si>
+    <t>Potion_Brew_3_Short</t>
+  </si>
+  <si>
+    <t>Potion_Brew_2_Short</t>
+  </si>
+  <si>
+    <t>Potion_Brew_1_Short</t>
+  </si>
+  <si>
+    <t>Potion_Brew_4_Short</t>
+  </si>
+  <si>
+    <t>Potion_Brew_01_Long</t>
+  </si>
+  <si>
+    <t>Potion_Brew_02_Long</t>
   </si>
 </sst>
 </file>
@@ -712,16 +721,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FC504840-0225-534A-B0F7-0901C7A6A8C7}">
-  <dimension ref="A1:F69"/>
+  <dimension ref="A1:F72"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="D69" sqref="D69"/>
+    <sheetView tabSelected="1" topLeftCell="A24" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="C39" sqref="C39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="17" customWidth="1"/>
-    <col min="2" max="2" width="24.33203125" customWidth="1"/>
+    <col min="2" max="2" width="30" customWidth="1"/>
     <col min="3" max="3" width="17.6640625" customWidth="1"/>
     <col min="4" max="4" width="17.1640625" customWidth="1"/>
     <col min="6" max="6" width="47.1640625" customWidth="1"/>
@@ -1027,7 +1036,7 @@
         <v>29</v>
       </c>
       <c r="C21" s="7" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="D21" s="5">
         <v>20</v>
@@ -1041,7 +1050,7 @@
         <v>30</v>
       </c>
       <c r="C22" s="7" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="D22" s="5">
         <v>20</v>
@@ -1055,7 +1064,7 @@
         <v>31</v>
       </c>
       <c r="C23" s="7" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="D23" s="5">
         <v>20</v>
@@ -1069,7 +1078,7 @@
         <v>32</v>
       </c>
       <c r="C24" s="7" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="D24" s="5">
         <v>20</v>
@@ -1083,7 +1092,7 @@
         <v>33</v>
       </c>
       <c r="C25" s="7" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="D25" s="5">
         <v>20</v>
@@ -1097,7 +1106,7 @@
         <v>34</v>
       </c>
       <c r="C26" s="7" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="D26" s="5">
         <v>20</v>
@@ -1111,7 +1120,7 @@
         <v>36</v>
       </c>
       <c r="C27" s="10" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="D27" s="5">
         <v>20</v>
@@ -1125,7 +1134,7 @@
         <v>37</v>
       </c>
       <c r="C28" s="10" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="D28" s="5">
         <v>20</v>
@@ -1139,7 +1148,7 @@
         <v>38</v>
       </c>
       <c r="C29" s="10" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="D29" s="5">
         <v>20</v>
@@ -1153,7 +1162,7 @@
         <v>39</v>
       </c>
       <c r="C30" s="10" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="D30" s="5">
         <v>20</v>
@@ -1167,7 +1176,7 @@
         <v>40</v>
       </c>
       <c r="C31" s="10" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="D31" s="5">
         <v>20</v>
@@ -1181,7 +1190,7 @@
         <v>41</v>
       </c>
       <c r="C32" s="10" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="D32" s="5">
         <v>20</v>
@@ -1195,7 +1204,7 @@
         <v>42</v>
       </c>
       <c r="C33" s="10" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="D33" s="5">
         <v>20</v>
@@ -1209,7 +1218,7 @@
         <v>43</v>
       </c>
       <c r="C34" s="10" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="D34" s="5">
         <v>20</v>
@@ -1223,7 +1232,7 @@
         <v>44</v>
       </c>
       <c r="C35" s="10" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="D35" s="5">
         <v>20</v>
@@ -1237,7 +1246,7 @@
         <v>45</v>
       </c>
       <c r="C36" s="10" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="D36" s="5">
         <v>20</v>
@@ -1248,10 +1257,10 @@
         <v>35</v>
       </c>
       <c r="B37" s="10" t="s">
-        <v>46</v>
-      </c>
-      <c r="C37" s="10" t="s">
         <v>63</v>
+      </c>
+      <c r="C37" s="10">
+        <v>1.45</v>
       </c>
       <c r="D37" s="5">
         <v>20</v>
@@ -1262,10 +1271,10 @@
         <v>35</v>
       </c>
       <c r="B38" s="10" t="s">
-        <v>48</v>
-      </c>
-      <c r="C38" s="10" t="s">
-        <v>63</v>
+        <v>62</v>
+      </c>
+      <c r="C38" s="10">
+        <v>1.56</v>
       </c>
       <c r="D38" s="5">
         <v>20</v>
@@ -1276,10 +1285,10 @@
         <v>35</v>
       </c>
       <c r="B39" s="10" t="s">
-        <v>47</v>
-      </c>
-      <c r="C39" s="10" t="s">
-        <v>63</v>
+        <v>61</v>
+      </c>
+      <c r="C39" s="10">
+        <v>1.56</v>
       </c>
       <c r="D39" s="5">
         <v>20</v>
@@ -1290,10 +1299,10 @@
         <v>35</v>
       </c>
       <c r="B40" s="10" t="s">
-        <v>49</v>
-      </c>
-      <c r="C40" s="10" t="s">
-        <v>63</v>
+        <v>64</v>
+      </c>
+      <c r="C40" s="10">
+        <v>1.45</v>
       </c>
       <c r="D40" s="5">
         <v>20</v>
@@ -1304,10 +1313,10 @@
         <v>35</v>
       </c>
       <c r="B41" s="10" t="s">
-        <v>50</v>
-      </c>
-      <c r="C41" s="10" t="s">
-        <v>63</v>
+        <v>65</v>
+      </c>
+      <c r="C41" s="10">
+        <v>3.95</v>
       </c>
       <c r="D41" s="5">
         <v>20</v>
@@ -1318,10 +1327,10 @@
         <v>35</v>
       </c>
       <c r="B42" s="10" t="s">
-        <v>51</v>
-      </c>
-      <c r="C42" s="10" t="s">
-        <v>63</v>
+        <v>66</v>
+      </c>
+      <c r="C42" s="10">
+        <v>2.15</v>
       </c>
       <c r="D42" s="5">
         <v>20</v>
@@ -1332,52 +1341,52 @@
         <v>35</v>
       </c>
       <c r="B43" s="10" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="C43" s="10" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="D43" s="5">
         <v>20</v>
       </c>
     </row>
     <row r="44" spans="1:4" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="12" t="s">
-        <v>53</v>
-      </c>
-      <c r="B44" s="12" t="s">
-        <v>54</v>
-      </c>
-      <c r="C44" s="12" t="s">
-        <v>63</v>
+      <c r="A44" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="B44" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="C44" s="10" t="s">
+        <v>60</v>
       </c>
       <c r="D44" s="5">
         <v>20</v>
       </c>
     </row>
     <row r="45" spans="1:4" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="12" t="s">
-        <v>53</v>
-      </c>
-      <c r="B45" s="12" t="s">
-        <v>55</v>
-      </c>
-      <c r="C45" s="12" t="s">
-        <v>63</v>
+      <c r="A45" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="B45" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="C45" s="10" t="s">
+        <v>60</v>
       </c>
       <c r="D45" s="5">
         <v>20</v>
       </c>
     </row>
     <row r="46" spans="1:4" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="12" t="s">
-        <v>53</v>
-      </c>
-      <c r="B46" s="12" t="s">
-        <v>56</v>
-      </c>
-      <c r="C46" s="12" t="s">
-        <v>63</v>
+      <c r="A46" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="B46" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="C46" s="10" t="s">
+        <v>60</v>
       </c>
       <c r="D46" s="5">
         <v>20</v>
@@ -1385,13 +1394,13 @@
     </row>
     <row r="47" spans="1:4" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A47" s="12" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="B47" s="12" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="C47" s="12" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="D47" s="5">
         <v>20</v>
@@ -1399,13 +1408,13 @@
     </row>
     <row r="48" spans="1:4" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A48" s="12" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="B48" s="12" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="C48" s="12" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="D48" s="5">
         <v>20</v>
@@ -1413,13 +1422,13 @@
     </row>
     <row r="49" spans="1:4" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A49" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="B49" s="12" t="s">
         <v>53</v>
       </c>
-      <c r="B49" s="12" t="s">
-        <v>59</v>
-      </c>
       <c r="C49" s="12" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="D49" s="5">
         <v>20</v>
@@ -1427,13 +1436,13 @@
     </row>
     <row r="50" spans="1:4" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A50" s="12" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="B50" s="12" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="C50" s="12" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="D50" s="5">
         <v>20</v>
@@ -1441,13 +1450,13 @@
     </row>
     <row r="51" spans="1:4" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A51" s="12" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="B51" s="12" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="C51" s="12" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="D51" s="5">
         <v>20</v>
@@ -1455,13 +1464,13 @@
     </row>
     <row r="52" spans="1:4" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A52" s="12" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="B52" s="12" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="C52" s="12" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="D52" s="5">
         <v>20</v>
@@ -1469,31 +1478,49 @@
     </row>
     <row r="53" spans="1:4" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A53" s="12" t="s">
-        <v>53</v>
-      </c>
-      <c r="B53" s="12"/>
-      <c r="C53" s="12"/>
-      <c r="D53" s="5"/>
+        <v>50</v>
+      </c>
+      <c r="B53" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="C53" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="D53" s="5">
+        <v>20</v>
+      </c>
     </row>
     <row r="54" spans="1:4" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A54" s="12" t="s">
-        <v>53</v>
-      </c>
-      <c r="B54" s="12"/>
-      <c r="C54" s="12"/>
-      <c r="D54" s="5"/>
+        <v>50</v>
+      </c>
+      <c r="B54" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="C54" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="D54" s="5">
+        <v>20</v>
+      </c>
     </row>
     <row r="55" spans="1:4" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A55" s="12" t="s">
-        <v>53</v>
-      </c>
-      <c r="B55" s="12"/>
-      <c r="C55" s="12"/>
-      <c r="D55" s="5"/>
+        <v>50</v>
+      </c>
+      <c r="B55" s="12" t="s">
+        <v>59</v>
+      </c>
+      <c r="C55" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="D55" s="5">
+        <v>20</v>
+      </c>
     </row>
     <row r="56" spans="1:4" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A56" s="12" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="B56" s="12"/>
       <c r="C56" s="12"/>
@@ -1501,7 +1528,7 @@
     </row>
     <row r="57" spans="1:4" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A57" s="12" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="B57" s="12"/>
       <c r="C57" s="12"/>
@@ -1509,7 +1536,7 @@
     </row>
     <row r="58" spans="1:4" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A58" s="12" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="B58" s="12"/>
       <c r="C58" s="12"/>
@@ -1517,7 +1544,7 @@
     </row>
     <row r="59" spans="1:4" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A59" s="12" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="B59" s="12"/>
       <c r="C59" s="12"/>
@@ -1525,7 +1552,7 @@
     </row>
     <row r="60" spans="1:4" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A60" s="12" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="B60" s="12"/>
       <c r="C60" s="12"/>
@@ -1533,7 +1560,7 @@
     </row>
     <row r="61" spans="1:4" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A61" s="12" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="B61" s="12"/>
       <c r="C61" s="12"/>
@@ -1541,7 +1568,7 @@
     </row>
     <row r="62" spans="1:4" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A62" s="12" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="B62" s="12"/>
       <c r="C62" s="12"/>
@@ -1549,7 +1576,7 @@
     </row>
     <row r="63" spans="1:4" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A63" s="12" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="B63" s="12"/>
       <c r="C63" s="12"/>
@@ -1557,7 +1584,7 @@
     </row>
     <row r="64" spans="1:4" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A64" s="12" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="B64" s="12"/>
       <c r="C64" s="12"/>
@@ -1565,7 +1592,7 @@
     </row>
     <row r="65" spans="1:4" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A65" s="12" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="B65" s="12"/>
       <c r="C65" s="12"/>
@@ -1573,7 +1600,7 @@
     </row>
     <row r="66" spans="1:4" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A66" s="12" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="B66" s="12"/>
       <c r="C66" s="12"/>
@@ -1581,7 +1608,7 @@
     </row>
     <row r="67" spans="1:4" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A67" s="12" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="B67" s="12"/>
       <c r="C67" s="12"/>
@@ -1589,24 +1616,48 @@
     </row>
     <row r="68" spans="1:4" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A68" s="12" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="B68" s="12"/>
       <c r="C68" s="12"/>
       <c r="D68" s="5"/>
     </row>
     <row r="69" spans="1:4" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A69" s="2" t="s">
+      <c r="A69" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="B69" s="12"/>
+      <c r="C69" s="12"/>
+      <c r="D69" s="5"/>
+    </row>
+    <row r="70" spans="1:4" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A70" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="B70" s="12"/>
+      <c r="C70" s="12"/>
+      <c r="D70" s="5"/>
+    </row>
+    <row r="71" spans="1:4" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A71" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="B71" s="12"/>
+      <c r="C71" s="12"/>
+      <c r="D71" s="5"/>
+    </row>
+    <row r="72" spans="1:4" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A72" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="B69" s="3"/>
-      <c r="C69" s="4">
-        <f>SUM(C2:C68)</f>
-        <v>12.196999999999999</v>
-      </c>
-      <c r="D69" s="6">
-        <f>SUM(D2:D68)</f>
-        <v>1020</v>
+      <c r="B72" s="3"/>
+      <c r="C72" s="4">
+        <f>SUM(C2:C71)</f>
+        <v>24.316999999999997</v>
+      </c>
+      <c r="D72" s="6">
+        <f>SUM(D2:D71)</f>
+        <v>1080</v>
       </c>
     </row>
   </sheetData>

--- a/Sounds/Sound_Duration_To_Robux_Cost_List.xlsx
+++ b/Sounds/Sound_Duration_To_Robux_Cost_List.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/eigengrau_23/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{844CF6BB-0A40-5548-92EB-11080115FB79}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B99AA837-07C7-F241-8276-32050A6A5A04}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="40800" yWindow="480" windowWidth="26140" windowHeight="19480" xr2:uid="{3B55B23C-837B-0946-9A89-BAD6EBD6E49C}"/>
+    <workbookView xWindow="38420" yWindow="1280" windowWidth="33600" windowHeight="19480" xr2:uid="{3B55B23C-837B-0946-9A89-BAD6EBD6E49C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="71">
   <si>
     <t>Class</t>
   </si>
@@ -234,6 +234,18 @@
   </si>
   <si>
     <t>Potion_Brew_02_Long</t>
+  </si>
+  <si>
+    <t>Potion_Choice_01</t>
+  </si>
+  <si>
+    <t>Potion_Choice_02</t>
+  </si>
+  <si>
+    <t>Potion_Choice_03</t>
+  </si>
+  <si>
+    <t>Potion_Choice_04</t>
   </si>
 </sst>
 </file>
@@ -723,8 +735,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FC504840-0225-534A-B0F7-0901C7A6A8C7}">
   <dimension ref="A1:F72"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A24" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="C39" sqref="C39"/>
+    <sheetView tabSelected="1" topLeftCell="A23" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="C47" sqref="C47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1341,10 +1353,10 @@
         <v>35</v>
       </c>
       <c r="B43" s="10" t="s">
-        <v>46</v>
-      </c>
-      <c r="C43" s="10" t="s">
-        <v>60</v>
+        <v>67</v>
+      </c>
+      <c r="C43" s="10">
+        <v>0.4</v>
       </c>
       <c r="D43" s="5">
         <v>20</v>
@@ -1355,10 +1367,10 @@
         <v>35</v>
       </c>
       <c r="B44" s="10" t="s">
-        <v>47</v>
-      </c>
-      <c r="C44" s="10" t="s">
-        <v>60</v>
+        <v>68</v>
+      </c>
+      <c r="C44" s="10">
+        <v>0.37</v>
       </c>
       <c r="D44" s="5">
         <v>20</v>
@@ -1369,10 +1381,10 @@
         <v>35</v>
       </c>
       <c r="B45" s="10" t="s">
-        <v>48</v>
-      </c>
-      <c r="C45" s="10" t="s">
-        <v>60</v>
+        <v>69</v>
+      </c>
+      <c r="C45" s="10">
+        <v>0.33</v>
       </c>
       <c r="D45" s="5">
         <v>20</v>
@@ -1383,65 +1395,65 @@
         <v>35</v>
       </c>
       <c r="B46" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="C46" s="10">
+        <v>0.39</v>
+      </c>
+      <c r="D46" s="5">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="B47" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="C47" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="D47" s="5">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="B48" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="C48" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="D48" s="5">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A49" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="B49" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="C49" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="D49" s="5">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A50" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="B50" s="10" t="s">
         <v>49</v>
       </c>
-      <c r="C46" s="10" t="s">
-        <v>60</v>
-      </c>
-      <c r="D46" s="5">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="12" t="s">
-        <v>50</v>
-      </c>
-      <c r="B47" s="12" t="s">
-        <v>51</v>
-      </c>
-      <c r="C47" s="12" t="s">
-        <v>60</v>
-      </c>
-      <c r="D47" s="5">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="12" t="s">
-        <v>50</v>
-      </c>
-      <c r="B48" s="12" t="s">
-        <v>52</v>
-      </c>
-      <c r="C48" s="12" t="s">
-        <v>60</v>
-      </c>
-      <c r="D48" s="5">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="12" t="s">
-        <v>50</v>
-      </c>
-      <c r="B49" s="12" t="s">
-        <v>53</v>
-      </c>
-      <c r="C49" s="12" t="s">
-        <v>60</v>
-      </c>
-      <c r="D49" s="5">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="12" t="s">
-        <v>50</v>
-      </c>
-      <c r="B50" s="12" t="s">
-        <v>54</v>
-      </c>
-      <c r="C50" s="12" t="s">
+      <c r="C50" s="10" t="s">
         <v>60</v>
       </c>
       <c r="D50" s="5">
@@ -1452,71 +1464,41 @@
       <c r="A51" s="12" t="s">
         <v>50</v>
       </c>
-      <c r="B51" s="12" t="s">
-        <v>55</v>
-      </c>
-      <c r="C51" s="12" t="s">
-        <v>60</v>
-      </c>
-      <c r="D51" s="5">
-        <v>20</v>
-      </c>
+      <c r="B51" s="12"/>
+      <c r="C51" s="12"/>
+      <c r="D51" s="5"/>
     </row>
     <row r="52" spans="1:4" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A52" s="12" t="s">
         <v>50</v>
       </c>
-      <c r="B52" s="12" t="s">
-        <v>56</v>
-      </c>
-      <c r="C52" s="12" t="s">
-        <v>60</v>
-      </c>
-      <c r="D52" s="5">
-        <v>20</v>
-      </c>
+      <c r="B52" s="12"/>
+      <c r="C52" s="12"/>
+      <c r="D52" s="5"/>
     </row>
     <row r="53" spans="1:4" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A53" s="12" t="s">
         <v>50</v>
       </c>
-      <c r="B53" s="12" t="s">
-        <v>57</v>
-      </c>
-      <c r="C53" s="12" t="s">
-        <v>60</v>
-      </c>
-      <c r="D53" s="5">
-        <v>20</v>
-      </c>
+      <c r="B53" s="12"/>
+      <c r="C53" s="12"/>
+      <c r="D53" s="5"/>
     </row>
     <row r="54" spans="1:4" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A54" s="12" t="s">
         <v>50</v>
       </c>
-      <c r="B54" s="12" t="s">
-        <v>58</v>
-      </c>
-      <c r="C54" s="12" t="s">
-        <v>60</v>
-      </c>
-      <c r="D54" s="5">
-        <v>20</v>
-      </c>
+      <c r="B54" s="12"/>
+      <c r="C54" s="12"/>
+      <c r="D54" s="5"/>
     </row>
     <row r="55" spans="1:4" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A55" s="12" t="s">
         <v>50</v>
       </c>
-      <c r="B55" s="12" t="s">
-        <v>59</v>
-      </c>
-      <c r="C55" s="12" t="s">
-        <v>60</v>
-      </c>
-      <c r="D55" s="5">
-        <v>20</v>
-      </c>
+      <c r="B55" s="12"/>
+      <c r="C55" s="12"/>
+      <c r="D55" s="5"/>
     </row>
     <row r="56" spans="1:4" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A56" s="12" t="s">
@@ -1554,73 +1536,127 @@
       <c r="A60" s="12" t="s">
         <v>50</v>
       </c>
-      <c r="B60" s="12"/>
-      <c r="C60" s="12"/>
-      <c r="D60" s="5"/>
+      <c r="B60" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="C60" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="D60" s="5">
+        <v>20</v>
+      </c>
     </row>
     <row r="61" spans="1:4" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A61" s="12" t="s">
         <v>50</v>
       </c>
-      <c r="B61" s="12"/>
-      <c r="C61" s="12"/>
-      <c r="D61" s="5"/>
+      <c r="B61" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="C61" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="D61" s="5">
+        <v>20</v>
+      </c>
     </row>
     <row r="62" spans="1:4" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A62" s="12" t="s">
         <v>50</v>
       </c>
-      <c r="B62" s="12"/>
-      <c r="C62" s="12"/>
-      <c r="D62" s="5"/>
+      <c r="B62" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="C62" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="D62" s="5">
+        <v>20</v>
+      </c>
     </row>
     <row r="63" spans="1:4" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A63" s="12" t="s">
         <v>50</v>
       </c>
-      <c r="B63" s="12"/>
-      <c r="C63" s="12"/>
-      <c r="D63" s="5"/>
+      <c r="B63" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="C63" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="D63" s="5">
+        <v>20</v>
+      </c>
     </row>
     <row r="64" spans="1:4" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A64" s="12" t="s">
         <v>50</v>
       </c>
-      <c r="B64" s="12"/>
-      <c r="C64" s="12"/>
-      <c r="D64" s="5"/>
+      <c r="B64" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="C64" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="D64" s="5">
+        <v>20</v>
+      </c>
     </row>
     <row r="65" spans="1:4" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A65" s="12" t="s">
         <v>50</v>
       </c>
-      <c r="B65" s="12"/>
-      <c r="C65" s="12"/>
-      <c r="D65" s="5"/>
+      <c r="B65" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="C65" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="D65" s="5">
+        <v>20</v>
+      </c>
     </row>
     <row r="66" spans="1:4" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A66" s="12" t="s">
         <v>50</v>
       </c>
-      <c r="B66" s="12"/>
-      <c r="C66" s="12"/>
-      <c r="D66" s="5"/>
+      <c r="B66" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="C66" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="D66" s="5">
+        <v>20</v>
+      </c>
     </row>
     <row r="67" spans="1:4" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A67" s="12" t="s">
         <v>50</v>
       </c>
-      <c r="B67" s="12"/>
-      <c r="C67" s="12"/>
-      <c r="D67" s="5"/>
+      <c r="B67" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="C67" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="D67" s="5">
+        <v>20</v>
+      </c>
     </row>
     <row r="68" spans="1:4" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A68" s="12" t="s">
         <v>50</v>
       </c>
-      <c r="B68" s="12"/>
-      <c r="C68" s="12"/>
-      <c r="D68" s="5"/>
+      <c r="B68" s="12" t="s">
+        <v>59</v>
+      </c>
+      <c r="C68" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="D68" s="5">
+        <v>20</v>
+      </c>
     </row>
     <row r="69" spans="1:4" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A69" s="12" t="s">
@@ -1653,11 +1689,11 @@
       <c r="B72" s="3"/>
       <c r="C72" s="4">
         <f>SUM(C2:C71)</f>
-        <v>24.316999999999997</v>
+        <v>25.806999999999995</v>
       </c>
       <c r="D72" s="6">
         <f>SUM(D2:D71)</f>
-        <v>1080</v>
+        <v>1160</v>
       </c>
     </row>
   </sheetData>

--- a/Sounds/Sound_Duration_To_Robux_Cost_List.xlsx
+++ b/Sounds/Sound_Duration_To_Robux_Cost_List.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/eigengrau_23/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B99AA837-07C7-F241-8276-32050A6A5A04}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{968F3C11-C793-BA44-BC4E-1E170BE06CDF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38420" yWindow="1280" windowWidth="33600" windowHeight="19480" xr2:uid="{3B55B23C-837B-0946-9A89-BAD6EBD6E49C}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="19480" xr2:uid="{3B55B23C-837B-0946-9A89-BAD6EBD6E49C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="76">
   <si>
     <t>Class</t>
   </si>
@@ -246,6 +246,21 @@
   </si>
   <si>
     <t>Potion_Choice_04</t>
+  </si>
+  <si>
+    <t>Potion_Throw_01</t>
+  </si>
+  <si>
+    <t>Potion_Throw_02</t>
+  </si>
+  <si>
+    <t>Potion_Throw_03</t>
+  </si>
+  <si>
+    <t>Potion_Throw_04</t>
+  </si>
+  <si>
+    <t>Potion_Throw_05</t>
   </si>
 </sst>
 </file>
@@ -735,8 +750,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FC504840-0225-534A-B0F7-0901C7A6A8C7}">
   <dimension ref="A1:F72"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A23" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="C47" sqref="C47"/>
+    <sheetView tabSelected="1" topLeftCell="A37" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="D52" sqref="D52:D55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1409,10 +1424,10 @@
         <v>35</v>
       </c>
       <c r="B47" s="10" t="s">
-        <v>46</v>
-      </c>
-      <c r="C47" s="10" t="s">
-        <v>60</v>
+        <v>71</v>
+      </c>
+      <c r="C47" s="10">
+        <v>0.41</v>
       </c>
       <c r="D47" s="5">
         <v>20</v>
@@ -1423,10 +1438,10 @@
         <v>35</v>
       </c>
       <c r="B48" s="10" t="s">
-        <v>47</v>
-      </c>
-      <c r="C48" s="10" t="s">
-        <v>60</v>
+        <v>72</v>
+      </c>
+      <c r="C48" s="10">
+        <v>0.41</v>
       </c>
       <c r="D48" s="5">
         <v>20</v>
@@ -1437,10 +1452,10 @@
         <v>35</v>
       </c>
       <c r="B49" s="10" t="s">
-        <v>48</v>
-      </c>
-      <c r="C49" s="10" t="s">
-        <v>60</v>
+        <v>73</v>
+      </c>
+      <c r="C49" s="10">
+        <v>0.34</v>
       </c>
       <c r="D49" s="5">
         <v>20</v>
@@ -1451,54 +1466,84 @@
         <v>35</v>
       </c>
       <c r="B50" s="10" t="s">
+        <v>74</v>
+      </c>
+      <c r="C50" s="10">
+        <v>0.33</v>
+      </c>
+      <c r="D50" s="5">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A51" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="B51" s="10" t="s">
+        <v>75</v>
+      </c>
+      <c r="C51" s="10">
+        <v>0.43</v>
+      </c>
+      <c r="D51" s="5">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A52" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="B52" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="C52" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="D52" s="5">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A53" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="B53" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="C53" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="D53" s="5">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A54" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="B54" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="C54" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="D54" s="5">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A55" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="B55" s="10" t="s">
         <v>49</v>
       </c>
-      <c r="C50" s="10" t="s">
-        <v>60</v>
-      </c>
-      <c r="D50" s="5">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="12" t="s">
-        <v>50</v>
-      </c>
-      <c r="B51" s="12"/>
-      <c r="C51" s="12"/>
-      <c r="D51" s="5"/>
-    </row>
-    <row r="52" spans="1:4" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="12" t="s">
-        <v>50</v>
-      </c>
-      <c r="B52" s="12"/>
-      <c r="C52" s="12"/>
-      <c r="D52" s="5"/>
-    </row>
-    <row r="53" spans="1:4" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="12" t="s">
-        <v>50</v>
-      </c>
-      <c r="B53" s="12"/>
-      <c r="C53" s="12"/>
-      <c r="D53" s="5"/>
-    </row>
-    <row r="54" spans="1:4" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="12" t="s">
-        <v>50</v>
-      </c>
-      <c r="B54" s="12"/>
-      <c r="C54" s="12"/>
-      <c r="D54" s="5"/>
-    </row>
-    <row r="55" spans="1:4" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="12" t="s">
-        <v>50</v>
-      </c>
-      <c r="B55" s="12"/>
-      <c r="C55" s="12"/>
-      <c r="D55" s="5"/>
+      <c r="C55" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="D55" s="5">
+        <v>20</v>
+      </c>
     </row>
     <row r="56" spans="1:4" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A56" s="12" t="s">
@@ -1689,11 +1734,11 @@
       <c r="B72" s="3"/>
       <c r="C72" s="4">
         <f>SUM(C2:C71)</f>
-        <v>25.806999999999995</v>
+        <v>27.726999999999993</v>
       </c>
       <c r="D72" s="6">
         <f>SUM(D2:D71)</f>
-        <v>1160</v>
+        <v>1260</v>
       </c>
     </row>
   </sheetData>
